--- a/xlsx/白宫办公厅_intext.xlsx
+++ b/xlsx/白宫办公厅_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-White House Office</t>
   </si>
   <si>
-    <t>政策_政策_美國_白宫办公厅</t>
+    <t>政策_政策_美国_白宫办公厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
   </si>
   <si>
-    <t>白宮幕僚長</t>
+    <t>白宫幕僚长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%8A%9E%E5%85%AC%E5%8E%85</t>
